--- a/Data/Datawrapper_Codes.xlsx
+++ b/Data/Datawrapper_Codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_november2021/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_februar2022/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{F974F407-8868-48F6-900C-8A3DF65F4D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEDBB7A3-ACF1-4600-99A4-46939030D493}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{F974F407-8868-48F6-900C-8A3DF65F4D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BC4B20D-81B6-40F4-9374-88460D0B14FF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{952992A2-AB5A-41C5-8BF4-315BB967E718}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{952992A2-AB5A-41C5-8BF4-315BB967E718}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Vorlage</t>
   </si>
@@ -57,67 +57,88 @@
     <t>kt_it</t>
   </si>
   <si>
-    <t>Covid</t>
-  </si>
-  <si>
-    <t>Pflege</t>
-  </si>
-  <si>
-    <t>Justiz</t>
-  </si>
-  <si>
-    <t>WSi99</t>
-  </si>
-  <si>
-    <t>y99uW</t>
-  </si>
-  <si>
-    <t>mKNB2</t>
-  </si>
-  <si>
-    <t>kWGdf</t>
-  </si>
-  <si>
-    <t>Nr698</t>
-  </si>
-  <si>
-    <t>7MWfE</t>
-  </si>
-  <si>
-    <t>Qb64g</t>
-  </si>
-  <si>
-    <t>1w06U</t>
-  </si>
-  <si>
-    <t>rXo2P</t>
-  </si>
-  <si>
-    <t>qDXWu</t>
-  </si>
-  <si>
-    <t>04CYQ</t>
-  </si>
-  <si>
-    <t>bC8Ur</t>
-  </si>
-  <si>
-    <t>OBRdr</t>
-  </si>
-  <si>
-    <t>CD9wz</t>
-  </si>
-  <si>
-    <t>d4aKf</t>
-  </si>
-  <si>
-    <t>XujSb</t>
-  </si>
-  <si>
-    <t>zBtZr</t>
-  </si>
-  <si>
-    <t>l2aE1</t>
+    <t>Tierversuche</t>
+  </si>
+  <si>
+    <t>Tabakwerbung</t>
+  </si>
+  <si>
+    <t>Stempelabgaben</t>
+  </si>
+  <si>
+    <t>Medien</t>
+  </si>
+  <si>
+    <t>P3gdm</t>
+  </si>
+  <si>
+    <t>5vDGV</t>
+  </si>
+  <si>
+    <t>wZKfv</t>
+  </si>
+  <si>
+    <t>tR4Mo</t>
+  </si>
+  <si>
+    <t>4VNVg</t>
+  </si>
+  <si>
+    <t>1aRnw</t>
+  </si>
+  <si>
+    <t>kjAmQ</t>
+  </si>
+  <si>
+    <t>qNAUf</t>
+  </si>
+  <si>
+    <t>WGk40</t>
+  </si>
+  <si>
+    <t>qQE98</t>
+  </si>
+  <si>
+    <t>BqObn</t>
+  </si>
+  <si>
+    <t>yjcee</t>
+  </si>
+  <si>
+    <t>AKzE0</t>
+  </si>
+  <si>
+    <t>7N6h4</t>
+  </si>
+  <si>
+    <t>CuVev</t>
+  </si>
+  <si>
+    <t>lFR5K</t>
+  </si>
+  <si>
+    <t>39UBw</t>
+  </si>
+  <si>
+    <t>CnpLd</t>
+  </si>
+  <si>
+    <t>sCtMv</t>
+  </si>
+  <si>
+    <t>N2ndR</t>
+  </si>
+  <si>
+    <t>5hHsr</t>
+  </si>
+  <si>
+    <t>havtn</t>
+  </si>
+  <si>
+    <t>xQjeF</t>
+  </si>
+  <si>
+    <t>WUafy</t>
   </si>
 </sst>
 </file>
@@ -482,7 +503,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,75 +538,95 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
